--- a/Mirna_IEC_SuppTables.xlsx
+++ b/Mirna_IEC_SuppTables.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/praveen/Desktop/Abstracts:Papers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matthias/Dropbox/praveen/projects-papers/small-intestine_miR/manuscript/submitted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C69AB81C-5F90-344A-8D70-A667EB6C59F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008BE6EF-3EFC-5640-804B-5C2ECA56086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5560" yWindow="2340" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Supplemental table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Supplemental table 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Supplemental table 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Table 1" sheetId="5" r:id="rId1"/>
+    <sheet name="Supplemental table 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Supplemental table 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Supplemental table 3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>Sample_name</t>
   </si>
@@ -176,18 +177,6 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>CFD_212</t>
-  </si>
-  <si>
-    <t>CFD_227</t>
-  </si>
-  <si>
-    <t>HFD_212</t>
-  </si>
-  <si>
-    <t>HFD_227</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -243,13 +232,97 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Prox1-GFP</t>
+  </si>
+  <si>
+    <t>Secretory progenitor cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live,CD45-EpCAM+SiglecF+CD24+ </t>
+  </si>
+  <si>
+    <t>C57BL/6</t>
+  </si>
+  <si>
+    <t>Tuft cells</t>
+  </si>
+  <si>
+    <t>Sox9-EGFP</t>
+  </si>
+  <si>
+    <t>Enteroendocrine cells</t>
+  </si>
+  <si>
+    <t>Defa6-Cre; CAG-tdTomato</t>
+  </si>
+  <si>
+    <t>Paneth cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live,CD45-EpCAM+UEA-1+CD24-CD166- </t>
+  </si>
+  <si>
+    <t>Goblet cells</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Enterocytes</t>
+  </si>
+  <si>
+    <t>Lgr5-EGFP</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Intestinal stem cells</t>
+  </si>
+  <si>
+    <t>FACS gating scheme</t>
+  </si>
+  <si>
+    <t>Mouse model</t>
+  </si>
+  <si>
+    <t>Small intestinal cell type</t>
+  </si>
+  <si>
+    <t>Live,CD45-EpCAM+UEA-1-CD24low</t>
+  </si>
+  <si>
+    <t>Crypt sample 1</t>
+  </si>
+  <si>
+    <t>Crypt sample 2</t>
+  </si>
+  <si>
+    <t>Crypt sample 3</t>
+  </si>
+  <si>
+    <t>Crypt sample 4</t>
+  </si>
+  <si>
+    <t>Chow</t>
+  </si>
+  <si>
+    <t>High-fat diet</t>
+  </si>
+  <si>
+    <t>Diet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,6 +464,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -573,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -688,6 +769,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -734,9 +916,19 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="42" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1092,10 +1284,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B217A1-0E18-7E4F-A91B-6CD0FDAD0858}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2381,17 +2703,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A9A27-87A9-0448-9A9A-197E6DF53D74}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2399,191 +2722,208 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2">
-        <v>75022791</v>
-      </c>
-      <c r="C2">
-        <v>77902194</v>
-      </c>
-      <c r="D2">
-        <v>109904829</v>
-      </c>
-      <c r="E2">
-        <v>74106794</v>
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>73256132</v>
+        <v>75022791</v>
       </c>
       <c r="C3">
-        <v>74592835</v>
+        <v>77902194</v>
       </c>
       <c r="D3">
-        <v>107877722</v>
+        <v>109904829</v>
       </c>
       <c r="E3">
-        <v>70172524</v>
+        <v>74106794</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.84E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5.3100000000000001E-2</v>
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>73256132</v>
+      </c>
+      <c r="C4">
+        <v>74592835</v>
+      </c>
+      <c r="D4">
+        <v>107877722</v>
+      </c>
+      <c r="E4">
+        <v>70172524</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>31453471</v>
-      </c>
-      <c r="C5">
-        <v>22193166</v>
-      </c>
-      <c r="D5">
-        <v>16434661</v>
-      </c>
-      <c r="E5">
-        <v>20094888</v>
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.3100000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.55720000000000003</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.67259999999999998</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.67579999999999996</v>
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>31453471</v>
+      </c>
+      <c r="C6">
+        <v>22193166</v>
+      </c>
+      <c r="D6">
+        <v>16434661</v>
+      </c>
+      <c r="E6">
+        <v>20094888</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7">
-        <v>26496156</v>
-      </c>
-      <c r="C7">
-        <v>18546219</v>
-      </c>
-      <c r="D7">
-        <v>12703297</v>
-      </c>
-      <c r="E7">
-        <v>16243627</v>
+        <v>52</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.55720000000000003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.67579999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.35320000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.23810000000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.11559999999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.21920000000000001</v>
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>26496156</v>
+      </c>
+      <c r="C8">
+        <v>18546219</v>
+      </c>
+      <c r="D8">
+        <v>12703297</v>
+      </c>
+      <c r="E8">
+        <v>16243627</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9">
-        <v>26412068</v>
-      </c>
-      <c r="C9">
-        <v>18483349</v>
-      </c>
-      <c r="D9">
-        <v>12644708</v>
-      </c>
-      <c r="E9">
-        <v>16180272</v>
+        <v>54</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.21920000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.35210000000000002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.23730000000000001</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.11509999999999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.21829999999999999</v>
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>26412068</v>
+      </c>
+      <c r="C10">
+        <v>18483349</v>
+      </c>
+      <c r="D10">
+        <v>12644708</v>
+      </c>
+      <c r="E10">
+        <v>16180272</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.21829999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
         <v>27377</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>24201</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>16283</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>21545</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>43435</v>
       </c>
     </row>
@@ -2592,7 +2932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCE1CB5-FA1F-7649-876D-BE0B18E98C69}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2607,18 +2947,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>1209</v>
@@ -2629,7 +2969,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>193753</v>
@@ -2640,7 +2980,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>3375</v>
@@ -2651,7 +2991,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1">
         <v>0.91100000000000003</v>
@@ -2662,7 +3002,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>1144</v>

--- a/Mirna_IEC_SuppTables.xlsx
+++ b/Mirna_IEC_SuppTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matthias/Dropbox/praveen/projects-papers/small-intestine_miR/manuscript/submitted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matthias/Dropbox/praveen/projects-papers/small-intestine_miR/manuscript/submitted/revision/gitHub_supp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008BE6EF-3EFC-5640-804B-5C2ECA56086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612AE13-0644-A24A-8F9F-18A3D5EBF3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="2340" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5560" yWindow="2320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
   <si>
     <t>Sample_name</t>
   </si>
@@ -316,6 +316,45 @@
   </si>
   <si>
     <t>Diet</t>
+  </si>
+  <si>
+    <t>CD24Low_1_S38</t>
+  </si>
+  <si>
+    <t>CD24Low_2_S39</t>
+  </si>
+  <si>
+    <t>CD24Low_3_S44</t>
+  </si>
+  <si>
+    <t>CD24Low_4_S45</t>
+  </si>
+  <si>
+    <t>TU1_S42_R1_001</t>
+  </si>
+  <si>
+    <t>TU2_S43_R1_001</t>
+  </si>
+  <si>
+    <t>TU3_S44_R1_001</t>
+  </si>
+  <si>
+    <t>TU4_S45_R1_001</t>
+  </si>
+  <si>
+    <t>tuft</t>
+  </si>
+  <si>
+    <t>BC180_chow_Low_GCCAAT_L001_R1</t>
+  </si>
+  <si>
+    <t>BC183_chow_Low_CAGATC_L001_R1</t>
+  </si>
+  <si>
+    <t>BC243_chow_Low_GTTTCG_L001_R1</t>
+  </si>
+  <si>
+    <t>BC241_chow_Low_GGTAGC_L001_R1</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2698,6 +2737,642 @@
         <v>9.25</v>
       </c>
     </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>121406816</v>
+      </c>
+      <c r="D25">
+        <v>111247221</v>
+      </c>
+      <c r="E25">
+        <v>91.63</v>
+      </c>
+      <c r="F25">
+        <v>6434412</v>
+      </c>
+      <c r="G25">
+        <v>5.3</v>
+      </c>
+      <c r="H25">
+        <v>75530983</v>
+      </c>
+      <c r="I25">
+        <v>67.89</v>
+      </c>
+      <c r="J25">
+        <v>35716238</v>
+      </c>
+      <c r="K25">
+        <v>32.11</v>
+      </c>
+      <c r="L25">
+        <v>87931682</v>
+      </c>
+      <c r="M25">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="N25">
+        <v>26559385</v>
+      </c>
+      <c r="O25">
+        <v>30.2</v>
+      </c>
+      <c r="P25">
+        <v>24428991</v>
+      </c>
+      <c r="Q25">
+        <v>27.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>128508372</v>
+      </c>
+      <c r="D26">
+        <v>112108954</v>
+      </c>
+      <c r="E26">
+        <v>87.24</v>
+      </c>
+      <c r="F26">
+        <v>12758875</v>
+      </c>
+      <c r="G26">
+        <v>9.93</v>
+      </c>
+      <c r="H26">
+        <v>75566185</v>
+      </c>
+      <c r="I26">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="J26">
+        <v>36542769</v>
+      </c>
+      <c r="K26">
+        <v>32.6</v>
+      </c>
+      <c r="L26">
+        <v>89596546</v>
+      </c>
+      <c r="M26">
+        <v>79.92</v>
+      </c>
+      <c r="N26">
+        <v>18112749</v>
+      </c>
+      <c r="O26">
+        <v>20.22</v>
+      </c>
+      <c r="P26">
+        <v>18800149</v>
+      </c>
+      <c r="Q26">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>56972394</v>
+      </c>
+      <c r="D27">
+        <v>54572044</v>
+      </c>
+      <c r="E27">
+        <v>95.79</v>
+      </c>
+      <c r="F27">
+        <v>1549200</v>
+      </c>
+      <c r="G27">
+        <v>2.72</v>
+      </c>
+      <c r="H27">
+        <v>34576129</v>
+      </c>
+      <c r="I27">
+        <v>63.36</v>
+      </c>
+      <c r="J27">
+        <v>19995915</v>
+      </c>
+      <c r="K27">
+        <v>36.64</v>
+      </c>
+      <c r="L27">
+        <v>40307717</v>
+      </c>
+      <c r="M27">
+        <v>73.86</v>
+      </c>
+      <c r="N27">
+        <v>13348935</v>
+      </c>
+      <c r="O27">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="P27">
+        <v>6841533</v>
+      </c>
+      <c r="Q27">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>97565231</v>
+      </c>
+      <c r="D28">
+        <v>94299766</v>
+      </c>
+      <c r="E28">
+        <v>96.65</v>
+      </c>
+      <c r="F28">
+        <v>2554768</v>
+      </c>
+      <c r="G28">
+        <v>2.62</v>
+      </c>
+      <c r="H28">
+        <v>66186798</v>
+      </c>
+      <c r="I28">
+        <v>70.19</v>
+      </c>
+      <c r="J28">
+        <v>28112968</v>
+      </c>
+      <c r="K28">
+        <v>29.81</v>
+      </c>
+      <c r="L28">
+        <v>75589644</v>
+      </c>
+      <c r="M28">
+        <v>80.16</v>
+      </c>
+      <c r="N28">
+        <v>30958628</v>
+      </c>
+      <c r="O28">
+        <v>40.96</v>
+      </c>
+      <c r="P28">
+        <v>21314713</v>
+      </c>
+      <c r="Q28">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29">
+        <v>30558802</v>
+      </c>
+      <c r="D29">
+        <v>14694361</v>
+      </c>
+      <c r="E29">
+        <v>48.09</v>
+      </c>
+      <c r="F29">
+        <v>13475838</v>
+      </c>
+      <c r="G29">
+        <v>44.1</v>
+      </c>
+      <c r="H29">
+        <v>3441012</v>
+      </c>
+      <c r="I29">
+        <v>23.42</v>
+      </c>
+      <c r="J29">
+        <v>11253349</v>
+      </c>
+      <c r="K29">
+        <v>76.58</v>
+      </c>
+      <c r="L29">
+        <v>5603189</v>
+      </c>
+      <c r="M29">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="N29">
+        <v>559779</v>
+      </c>
+      <c r="O29">
+        <v>9.99</v>
+      </c>
+      <c r="P29">
+        <v>301045</v>
+      </c>
+      <c r="Q29">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30">
+        <v>39454867</v>
+      </c>
+      <c r="D30">
+        <v>21675328</v>
+      </c>
+      <c r="E30">
+        <v>54.94</v>
+      </c>
+      <c r="F30">
+        <v>15593899</v>
+      </c>
+      <c r="G30">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="H30">
+        <v>3816338</v>
+      </c>
+      <c r="I30">
+        <v>17.61</v>
+      </c>
+      <c r="J30">
+        <v>17858990</v>
+      </c>
+      <c r="K30">
+        <v>82.39</v>
+      </c>
+      <c r="L30">
+        <v>7620461</v>
+      </c>
+      <c r="M30">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="N30">
+        <v>246704</v>
+      </c>
+      <c r="O30">
+        <v>3.24</v>
+      </c>
+      <c r="P30">
+        <v>265912</v>
+      </c>
+      <c r="Q30">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31">
+        <v>30870829</v>
+      </c>
+      <c r="D31">
+        <v>15045480</v>
+      </c>
+      <c r="E31">
+        <v>48.74</v>
+      </c>
+      <c r="F31">
+        <v>13861313</v>
+      </c>
+      <c r="G31">
+        <v>44.9</v>
+      </c>
+      <c r="H31">
+        <v>3149921</v>
+      </c>
+      <c r="I31">
+        <v>20.94</v>
+      </c>
+      <c r="J31">
+        <v>11895559</v>
+      </c>
+      <c r="K31">
+        <v>79.06</v>
+      </c>
+      <c r="L31">
+        <v>5527731</v>
+      </c>
+      <c r="M31">
+        <v>36.74</v>
+      </c>
+      <c r="N31">
+        <v>475678</v>
+      </c>
+      <c r="O31">
+        <v>8.61</v>
+      </c>
+      <c r="P31">
+        <v>268000</v>
+      </c>
+      <c r="Q31">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32">
+        <v>35344453</v>
+      </c>
+      <c r="D32">
+        <v>17095832</v>
+      </c>
+      <c r="E32">
+        <v>48.37</v>
+      </c>
+      <c r="F32">
+        <v>15227811</v>
+      </c>
+      <c r="G32">
+        <v>43.08</v>
+      </c>
+      <c r="H32">
+        <v>4493352</v>
+      </c>
+      <c r="I32">
+        <v>26.28</v>
+      </c>
+      <c r="J32">
+        <v>12602480</v>
+      </c>
+      <c r="K32">
+        <v>73.72</v>
+      </c>
+      <c r="L32">
+        <v>7016972</v>
+      </c>
+      <c r="M32">
+        <v>41.04</v>
+      </c>
+      <c r="N32">
+        <v>720398</v>
+      </c>
+      <c r="O32">
+        <v>10.27</v>
+      </c>
+      <c r="P32">
+        <v>362057</v>
+      </c>
+      <c r="Q32">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>19513102</v>
+      </c>
+      <c r="D33">
+        <v>16095471</v>
+      </c>
+      <c r="E33">
+        <v>82.49</v>
+      </c>
+      <c r="F33">
+        <v>1887869</v>
+      </c>
+      <c r="G33">
+        <v>9.67</v>
+      </c>
+      <c r="H33">
+        <v>10082602</v>
+      </c>
+      <c r="I33">
+        <v>62.64</v>
+      </c>
+      <c r="J33">
+        <v>6012869</v>
+      </c>
+      <c r="K33">
+        <v>37.36</v>
+      </c>
+      <c r="L33">
+        <v>11596793</v>
+      </c>
+      <c r="M33">
+        <v>72.05</v>
+      </c>
+      <c r="N33">
+        <v>4922433</v>
+      </c>
+      <c r="O33">
+        <v>42.45</v>
+      </c>
+      <c r="P33">
+        <v>1694907</v>
+      </c>
+      <c r="Q33">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>11379700</v>
+      </c>
+      <c r="D34">
+        <v>8754580</v>
+      </c>
+      <c r="E34">
+        <v>76.930000000000007</v>
+      </c>
+      <c r="F34">
+        <v>1196566</v>
+      </c>
+      <c r="G34">
+        <v>10.51</v>
+      </c>
+      <c r="H34">
+        <v>5168307</v>
+      </c>
+      <c r="I34">
+        <v>59.04</v>
+      </c>
+      <c r="J34">
+        <v>3586273</v>
+      </c>
+      <c r="K34">
+        <v>40.96</v>
+      </c>
+      <c r="L34">
+        <v>6036474</v>
+      </c>
+      <c r="M34">
+        <v>68.95</v>
+      </c>
+      <c r="N34">
+        <v>2399578</v>
+      </c>
+      <c r="O34">
+        <v>39.75</v>
+      </c>
+      <c r="P34">
+        <v>814027</v>
+      </c>
+      <c r="Q34">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>14583484</v>
+      </c>
+      <c r="D35">
+        <v>10934096</v>
+      </c>
+      <c r="E35">
+        <v>74.98</v>
+      </c>
+      <c r="F35">
+        <v>1404444</v>
+      </c>
+      <c r="G35">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="H35">
+        <v>6503557</v>
+      </c>
+      <c r="I35">
+        <v>59.48</v>
+      </c>
+      <c r="J35">
+        <v>4430539</v>
+      </c>
+      <c r="K35">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="L35">
+        <v>7495057</v>
+      </c>
+      <c r="M35">
+        <v>68.55</v>
+      </c>
+      <c r="N35">
+        <v>1744421</v>
+      </c>
+      <c r="O35">
+        <v>23.27</v>
+      </c>
+      <c r="P35">
+        <v>2225163</v>
+      </c>
+      <c r="Q35">
+        <v>29.69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>18302890</v>
+      </c>
+      <c r="D36">
+        <v>16476588</v>
+      </c>
+      <c r="E36">
+        <v>90.02</v>
+      </c>
+      <c r="F36">
+        <v>321122</v>
+      </c>
+      <c r="G36">
+        <v>1.75</v>
+      </c>
+      <c r="H36">
+        <v>10864908</v>
+      </c>
+      <c r="I36">
+        <v>65.94</v>
+      </c>
+      <c r="J36">
+        <v>5611680</v>
+      </c>
+      <c r="K36">
+        <v>34.06</v>
+      </c>
+      <c r="L36">
+        <v>11654469</v>
+      </c>
+      <c r="M36">
+        <v>70.73</v>
+      </c>
+      <c r="N36">
+        <v>4334150</v>
+      </c>
+      <c r="O36">
+        <v>37.19</v>
+      </c>
+      <c r="P36">
+        <v>3440637</v>
+      </c>
+      <c r="Q36">
+        <v>29.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2707,7 +3382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A9A27-87A9-0448-9A9A-197E6DF53D74}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
